--- a/Document_Sprint3/ADAPT_Blueprint3.xlsx
+++ b/Document_Sprint3/ADAPT_Blueprint3.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sprint3_Backlog" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet4" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="burndown chart" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="UAT testing" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Scemario Test" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="177">
   <si>
     <t>***หมายเหตุ: กำหนดให้แต่ละ Sprint มีความยาว 1 สัปดาห์เท่ากัน</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Controller หน้าไม่ต้องการใบกำกับภาษี</t>
+  </si>
+  <si>
+    <t>BurnDown Chat</t>
   </si>
   <si>
     <t>Project Name :</t>
@@ -865,7 +868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -904,6 +907,12 @@
     </font>
     <font>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1019,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1099,7 +1108,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1108,10 +1120,10 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1123,7 +1135,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1153,14 +1165,14 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1172,10 +1184,10 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1203,36 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7153275" cy="4305300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5309,7 +5350,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5332,770 +5379,770 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>46</v>
       </c>
+      <c r="F1" s="31" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="A2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="30">
         <v>6.0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30" t="s">
         <v>49</v>
       </c>
+      <c r="F2" s="33" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30" t="s">
         <v>52</v>
       </c>
+      <c r="F3" s="33" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="34" t="s">
         <v>60</v>
       </c>
+      <c r="G6" s="33" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="35" t="s">
         <v>62</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>67</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="27"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>67</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>67</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="G10" s="27"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>67</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G11" s="27"/>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>67</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G12" s="27"/>
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>67</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G13" s="27"/>
     </row>
     <row r="14">
       <c r="A14" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
+      <c r="E14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="35" t="s">
         <v>87</v>
       </c>
+      <c r="B15" s="36" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>89</v>
       </c>
+      <c r="B16" s="41" t="s">
+        <v>90</v>
+      </c>
       <c r="C16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>67</v>
+      <c r="D16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>67</v>
+      <c r="E17" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="40" t="s">
-        <v>95</v>
+      <c r="A18" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>67</v>
+        <v>98</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="35" t="s">
         <v>99</v>
       </c>
+      <c r="B19" s="36" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="40" t="s">
-        <v>100</v>
+      <c r="A20" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>67</v>
+      <c r="D20" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>67</v>
+      <c r="E21" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="40" t="s">
-        <v>107</v>
+      <c r="A22" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>67</v>
+        <v>110</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="G22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="43" t="s">
         <v>111</v>
       </c>
+      <c r="B23" s="44" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="D24" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="E24" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="F24" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="46"/>
     </row>
     <row r="25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="36" t="s">
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="D28" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="44" t="s">
+      <c r="D29" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="42" t="s">
+      <c r="F29" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="45"/>
+      <c r="D30" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="46"/>
     </row>
     <row r="31">
-      <c r="A31" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="B32" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>67</v>
+      <c r="D32" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>117</v>
+      <c r="E33" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>117</v>
+      <c r="F34" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="B35" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>67</v>
+      <c r="C35" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>117</v>
+      <c r="C36" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="B37" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>117</v>
+      <c r="C37" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="B38" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>117</v>
+      <c r="C38" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="B39" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>117</v>
+      <c r="C39" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="B40" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>67</v>
+      <c r="D40" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>67</v>
+      <c r="E41" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="B42" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>117</v>
+      <c r="C42" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="B43" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>117</v>
+      <c r="C43" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6126,88 +6173,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>175</v>
       </c>
+      <c r="B1" s="52" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="52">
+      <c r="A2" s="53">
         <v>1.0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>62</v>
+      <c r="B2" s="54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>87</v>
+      <c r="A3" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52">
+      <c r="A4" s="53">
         <v>3.0</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>99</v>
+      <c r="B4" s="54" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52">
+      <c r="A5" s="53">
         <v>4.0</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>111</v>
+      <c r="B5" s="54" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52">
+      <c r="A6" s="53">
         <v>5.0</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>126</v>
+      <c r="B6" s="54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54">
+      <c r="A7" s="55">
         <v>6.0</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>134</v>
+      <c r="B7" s="55" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
     </row>
     <row r="10">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
     </row>
     <row r="11">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
     </row>
     <row r="13">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
     </row>
     <row r="14">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
